--- a/mms_ssh_jquery/src/main/webapp/doc/db/sm_menu_db.xlsx
+++ b/mms_ssh_jquery/src/main/webapp/doc/db/sm_menu_db.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="309">
   <si>
     <t>数据库表设计模板跟踪</t>
   </si>
@@ -395,13 +395,7 @@
     <t>默认字段1</t>
   </si>
   <si>
-    <t>MENU_DEFAULT1</t>
-  </si>
-  <si>
     <t>20</t>
-  </si>
-  <si>
-    <t>默认隐藏字段1</t>
   </si>
   <si>
     <t>15</t>
@@ -997,19 +991,35 @@
   <si>
     <t>CPY_LOG_DESCRIPION</t>
   </si>
+  <si>
+    <t>MENU_SORT_NUM</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序编号</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来排序的编号</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-409]dd/mmm/yy;@"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1119,165 +1129,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1302,194 +1167,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1713,274 +1392,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2095,9 +1514,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2107,16 +1523,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2128,20 +1553,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2149,67 +1565,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2220,7 +1610,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2299,7 +1689,7 @@
                   <a:chExt cx="7829550" cy="4923070"/>
                 </a:xfrm>
               </xdr:grpSpPr>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="34" name="流程图: 可选过程 448"/>
                   <xdr:cNvSpPr>
@@ -2359,17 +1749,10 @@
                       </a:rPr>
                       <a:t>教学模块</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="7200" b="0" i="1" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="FFFFFF"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="35" name="流程图: 可选过程 449"/>
                   <xdr:cNvSpPr>
@@ -2419,17 +1802,10 @@
                       </a:rPr>
                       <a:t>知识点</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:cxnSp>
+              <xdr:cxnSp macro="">
                 <xdr:nvCxnSpPr>
                   <xdr:cNvPr id="36" name="曲线连接符 450"/>
                   <xdr:cNvCxnSpPr>
@@ -2466,7 +1842,7 @@
                   </a:extLst>
                 </xdr:spPr>
               </xdr:cxnSp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="38" name="文本框 452"/>
                   <xdr:cNvSpPr txBox="1">
@@ -2522,17 +1898,10 @@
                       </a:rPr>
                       <a:t>n</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="39" name="流程图: 可选过程 453"/>
                   <xdr:cNvSpPr>
@@ -2582,17 +1951,10 @@
                       </a:rPr>
                       <a:t>技能</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="40" name="文本框 456"/>
                   <xdr:cNvSpPr txBox="1">
@@ -2648,17 +2010,10 @@
                       </a:rPr>
                       <a:t>n</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="41" name="流程图: 可选过程 457"/>
                   <xdr:cNvSpPr>
@@ -2700,17 +2055,10 @@
                       </a:rPr>
                       <a:t>技能知识点</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="42" name="流程图: 可选过程 460"/>
                   <xdr:cNvSpPr>
@@ -2760,17 +2108,10 @@
                       </a:rPr>
                       <a:t>知识点详细</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="43" name="文本框 461"/>
                   <xdr:cNvSpPr txBox="1">
@@ -2826,17 +2167,10 @@
                       </a:rPr>
                       <a:t>1</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="44" name="流程图: 可选过程 462"/>
                   <xdr:cNvSpPr>
@@ -2886,17 +2220,10 @@
                       </a:rPr>
                       <a:t>课程</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:cxnSp>
+              <xdr:cxnSp macro="">
                 <xdr:nvCxnSpPr>
                   <xdr:cNvPr id="45" name="曲线连接符 463"/>
                   <xdr:cNvCxnSpPr>
@@ -2930,7 +2257,7 @@
                   </a:extLst>
                 </xdr:spPr>
               </xdr:cxnSp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="46" name="文本框 464"/>
                   <xdr:cNvSpPr txBox="1">
@@ -2986,17 +2313,10 @@
                       </a:rPr>
                       <a:t>1</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:cxnSp>
+              <xdr:cxnSp macro="">
                 <xdr:nvCxnSpPr>
                   <xdr:cNvPr id="47" name="曲线连接符 465"/>
                   <xdr:cNvCxnSpPr>
@@ -3031,7 +2351,7 @@
                   </a:extLst>
                 </xdr:spPr>
               </xdr:cxnSp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="48" name="流程图: 可选过程 466"/>
                   <xdr:cNvSpPr>
@@ -3073,17 +2393,10 @@
                       </a:rPr>
                       <a:t>课程知识点</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="49" name="流程图: 预定义过程 467"/>
                   <xdr:cNvSpPr>
@@ -3133,17 +2446,10 @@
                       </a:rPr>
                       <a:t>人员表</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:cxnSp>
+              <xdr:cxnSp macro="">
                 <xdr:nvCxnSpPr>
                   <xdr:cNvPr id="50" name="曲线连接符 470"/>
                   <xdr:cNvCxnSpPr>
@@ -3177,7 +2483,7 @@
                   </a:extLst>
                 </xdr:spPr>
               </xdr:cxnSp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="51" name="流程图: 可选过程 472"/>
                   <xdr:cNvSpPr>
@@ -3219,17 +2525,10 @@
                       </a:rPr>
                       <a:t>讲师知识点</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:cxnSp>
+              <xdr:cxnSp macro="">
                 <xdr:nvCxnSpPr>
                   <xdr:cNvPr id="52" name="肘形连接符 473"/>
                   <xdr:cNvCxnSpPr>
@@ -3260,7 +2559,7 @@
                   </a:extLst>
                 </xdr:spPr>
               </xdr:cxnSp>
-              <xdr:cxnSp>
+              <xdr:cxnSp macro="">
                 <xdr:nvCxnSpPr>
                   <xdr:cNvPr id="53" name="肘形连接符 475"/>
                   <xdr:cNvCxnSpPr>
@@ -3292,7 +2591,7 @@
                   </a:extLst>
                 </xdr:spPr>
               </xdr:cxnSp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="54" name="流程图: 可选过程 477"/>
                   <xdr:cNvSpPr>
@@ -3342,17 +2641,10 @@
                       </a:rPr>
                       <a:t>授课历史</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="55" name="流程图: 可选过程 479"/>
                   <xdr:cNvSpPr>
@@ -3402,17 +2694,10 @@
                       </a:rPr>
                       <a:t>班级</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="56" name="流程图: 可选过程 485"/>
                   <xdr:cNvSpPr>
@@ -3462,17 +2747,10 @@
                       </a:rPr>
                       <a:t>教学计划</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="57" name="流程图: 可选过程 491"/>
                   <xdr:cNvSpPr>
@@ -3522,17 +2800,10 @@
                       </a:rPr>
                       <a:t>详细计划</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="58" name="流程图: 可选过程 492"/>
                   <xdr:cNvSpPr>
@@ -3582,17 +2853,10 @@
                       </a:rPr>
                       <a:t>日历表</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:cxnSp>
+              <xdr:cxnSp macro="">
                 <xdr:nvCxnSpPr>
                   <xdr:cNvPr id="59" name="曲线连接符 495"/>
                   <xdr:cNvCxnSpPr>
@@ -3628,7 +2892,7 @@
                   </a:extLst>
                 </xdr:spPr>
               </xdr:cxnSp>
-              <xdr:cxnSp>
+              <xdr:cxnSp macro="">
                 <xdr:nvCxnSpPr>
                   <xdr:cNvPr id="60" name="曲线连接符 496"/>
                   <xdr:cNvCxnSpPr>
@@ -3664,7 +2928,7 @@
                   </a:extLst>
                 </xdr:spPr>
               </xdr:cxnSp>
-              <xdr:cxnSp>
+              <xdr:cxnSp macro="">
                 <xdr:nvCxnSpPr>
                   <xdr:cNvPr id="61" name="曲线连接符 497"/>
                   <xdr:cNvCxnSpPr>
@@ -3698,7 +2962,7 @@
                   </a:extLst>
                 </xdr:spPr>
               </xdr:cxnSp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="65" name="流程图: 可选过程 502"/>
                   <xdr:cNvSpPr>
@@ -3748,17 +3012,10 @@
                       </a:rPr>
                       <a:t>总评互评</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
-              <xdr:cxnSp>
+              <xdr:cxnSp macro="">
                 <xdr:nvCxnSpPr>
                   <xdr:cNvPr id="66" name="曲线连接符 503"/>
                   <xdr:cNvCxnSpPr>
@@ -3795,7 +3052,7 @@
                   </a:extLst>
                 </xdr:spPr>
               </xdr:cxnSp>
-              <xdr:cxnSp>
+              <xdr:cxnSp macro="">
                 <xdr:nvCxnSpPr>
                   <xdr:cNvPr id="67" name="曲线连接符 505"/>
                   <xdr:cNvCxnSpPr>
@@ -3831,7 +3088,7 @@
                   </a:extLst>
                 </xdr:spPr>
               </xdr:cxnSp>
-              <xdr:cxnSp>
+              <xdr:cxnSp macro="">
                 <xdr:nvCxnSpPr>
                   <xdr:cNvPr id="68" name="曲线连接符 503"/>
                   <xdr:cNvCxnSpPr>
@@ -3868,7 +3125,7 @@
                   </a:extLst>
                 </xdr:spPr>
               </xdr:cxnSp>
-              <xdr:sp>
+              <xdr:sp macro="" textlink="">
                 <xdr:nvSpPr>
                   <xdr:cNvPr id="69" name="流程图: 可选过程 502"/>
                   <xdr:cNvSpPr>
@@ -3918,18 +3175,11 @@
                       </a:rPr>
                       <a:t>过程评价</a:t>
                     </a:r>
-                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                      <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    </a:endParaRPr>
                   </a:p>
                 </xdr:txBody>
               </xdr:sp>
             </xdr:grpSp>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="19" name="曲线连接符 454"/>
                 <xdr:cNvCxnSpPr>
@@ -3963,7 +3213,7 @@
                 </a:extLst>
               </xdr:spPr>
             </xdr:cxnSp>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="20" name="曲线连接符 458"/>
                 <xdr:cNvCxnSpPr>
@@ -4000,7 +3250,7 @@
                 </a:extLst>
               </xdr:spPr>
             </xdr:cxnSp>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="21" name="肘形连接符 474"/>
                 <xdr:cNvCxnSpPr>
@@ -4031,7 +3281,7 @@
                 </a:extLst>
               </xdr:spPr>
             </xdr:cxnSp>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="22" name="曲线连接符 476"/>
                 <xdr:cNvCxnSpPr>
@@ -4068,7 +3318,7 @@
                 </a:extLst>
               </xdr:spPr>
             </xdr:cxnSp>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="23" name="曲线连接符 480"/>
                 <xdr:cNvCxnSpPr>
@@ -4104,7 +3354,7 @@
                 </a:extLst>
               </xdr:spPr>
             </xdr:cxnSp>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="24" name="肘形连接符 483"/>
                 <xdr:cNvCxnSpPr>
@@ -4136,7 +3386,7 @@
                 </a:extLst>
               </xdr:spPr>
             </xdr:cxnSp>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="25" name="曲线连接符 486"/>
                 <xdr:cNvCxnSpPr>
@@ -4171,7 +3421,7 @@
                 </a:extLst>
               </xdr:spPr>
             </xdr:cxnSp>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="26" name="曲线连接符 488"/>
                 <xdr:cNvCxnSpPr>
@@ -4208,7 +3458,7 @@
                 </a:extLst>
               </xdr:spPr>
             </xdr:cxnSp>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="27" name="曲线连接符 490"/>
                 <xdr:cNvCxnSpPr>
@@ -4243,7 +3493,7 @@
                 </a:extLst>
               </xdr:spPr>
             </xdr:cxnSp>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="28" name="曲线连接符 493"/>
                 <xdr:cNvCxnSpPr>
@@ -4279,7 +3529,7 @@
                 </a:extLst>
               </xdr:spPr>
             </xdr:cxnSp>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="29" name="曲线连接符 494"/>
                 <xdr:cNvCxnSpPr>
@@ -4315,7 +3565,7 @@
                 </a:extLst>
               </xdr:spPr>
             </xdr:cxnSp>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="30" name="曲线连接符 503"/>
                 <xdr:cNvCxnSpPr>
@@ -4351,7 +3601,7 @@
                 </a:extLst>
               </xdr:spPr>
             </xdr:cxnSp>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="31" name="曲线连接符 503"/>
                 <xdr:cNvCxnSpPr>
@@ -4385,7 +3635,7 @@
                 </a:extLst>
               </xdr:spPr>
             </xdr:cxnSp>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="32" name="曲线连接符 503"/>
                 <xdr:cNvCxnSpPr>
@@ -4419,7 +3669,7 @@
                 </a:extLst>
               </xdr:spPr>
             </xdr:cxnSp>
-            <xdr:cxnSp>
+            <xdr:cxnSp macro="">
               <xdr:nvCxnSpPr>
                 <xdr:cNvPr id="33" name="曲线连接符 503"/>
                 <xdr:cNvCxnSpPr>
@@ -4469,7 +3719,7 @@
                 <a:chExt cx="6267450" cy="1920044"/>
               </a:xfrm>
             </xdr:grpSpPr>
-            <xdr:sp>
+            <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="11" name="文本框 471"/>
                 <xdr:cNvSpPr txBox="1">
@@ -4525,17 +3775,10 @@
                     </a:rPr>
                     <a:t>1</a:t>
                   </a:r>
-                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                  </a:endParaRPr>
                 </a:p>
               </xdr:txBody>
             </xdr:sp>
-            <xdr:sp>
+            <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="12" name="文本框 478"/>
                 <xdr:cNvSpPr txBox="1">
@@ -4591,17 +3834,10 @@
                     </a:rPr>
                     <a:t>n</a:t>
                   </a:r>
-                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                  </a:endParaRPr>
                 </a:p>
               </xdr:txBody>
             </xdr:sp>
-            <xdr:sp>
+            <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="13" name="文本框 481"/>
                 <xdr:cNvSpPr txBox="1">
@@ -4657,17 +3893,10 @@
                     </a:rPr>
                     <a:t>1</a:t>
                   </a:r>
-                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                  </a:endParaRPr>
                 </a:p>
               </xdr:txBody>
             </xdr:sp>
-            <xdr:sp>
+            <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="14" name="文本框 482"/>
                 <xdr:cNvSpPr txBox="1">
@@ -4723,17 +3952,10 @@
                     </a:rPr>
                     <a:t>n</a:t>
                   </a:r>
-                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                  </a:endParaRPr>
                 </a:p>
               </xdr:txBody>
             </xdr:sp>
-            <xdr:sp>
+            <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="15" name="流程图: 可选过程 484"/>
                 <xdr:cNvSpPr>
@@ -4775,17 +3997,10 @@
                     </a:rPr>
                     <a:t>班级学员</a:t>
                   </a:r>
-                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                  </a:endParaRPr>
                 </a:p>
               </xdr:txBody>
             </xdr:sp>
-            <xdr:sp>
+            <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="16" name="文本框 487"/>
                 <xdr:cNvSpPr txBox="1">
@@ -4841,17 +4056,10 @@
                     </a:rPr>
                     <a:t>1</a:t>
                   </a:r>
-                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                  </a:endParaRPr>
                 </a:p>
               </xdr:txBody>
             </xdr:sp>
-            <xdr:sp>
+            <xdr:sp macro="" textlink="">
               <xdr:nvSpPr>
                 <xdr:cNvPr id="17" name="文本框 489"/>
                 <xdr:cNvSpPr txBox="1">
@@ -4907,19 +4115,12 @@
                     </a:rPr>
                     <a:t>n</a:t>
                   </a:r>
-                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                  </a:endParaRPr>
                 </a:p>
               </xdr:txBody>
             </xdr:sp>
           </xdr:grpSp>
         </xdr:grpSp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="文本框 468"/>
             <xdr:cNvSpPr txBox="1">
@@ -4975,17 +4176,10 @@
                 </a:rPr>
                 <a:t>讲师</a:t>
               </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="文本框 469"/>
             <xdr:cNvSpPr txBox="1">
@@ -5041,18 +4235,11 @@
                 </a:rPr>
                 <a:t>学员</a:t>
               </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="4" name="文本框 459"/>
           <xdr:cNvSpPr txBox="1">
@@ -5108,17 +4295,10 @@
               </a:rPr>
               <a:t>n</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="5" name="文本框 455"/>
           <xdr:cNvSpPr txBox="1">
@@ -5174,13 +4354,6 @@
               </a:rPr>
               <a:t>1</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -5191,7 +4364,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5213,7 +4386,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5518,13 +4691,13 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="E2:N19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15:J15"/>
@@ -5532,7 +4705,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="9" style="56"/>
+    <col min="5" max="5" width="9" style="46"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="9.375" customWidth="1"/>
@@ -5540,214 +4713,213 @@
     <col min="13" max="13" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="14.25"/>
-    <row r="3" ht="19.5" spans="5:14">
-      <c r="E3" s="57" t="s">
+    <row r="3" spans="5:14" ht="18.75">
+      <c r="E3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="64"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
     </row>
     <row r="6" spans="5:14">
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="9" t="s">
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="9"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="5:14">
-      <c r="E7" s="11">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="11" t="s">
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L7" s="49">
         <v>43090</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="5:14">
-      <c r="E8" s="11"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="5:14">
-      <c r="E9" s="11"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="5:14">
-      <c r="E10" s="11"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="5:14">
-      <c r="E11" s="11"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="5:14">
-      <c r="E12" s="11"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="5:14">
-      <c r="E13" s="11"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" spans="5:14">
-      <c r="E14" s="11"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" spans="5:14">
-      <c r="E15" s="11"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" spans="5:14">
-      <c r="E16" s="11"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
     </row>
     <row r="17" spans="5:14">
-      <c r="E17" s="11"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
     </row>
     <row r="18" spans="5:14">
-      <c r="E18" s="11"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
     </row>
     <row r="19" spans="5:14">
-      <c r="E19" s="11"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -5767,14 +4939,13 @@
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:A20"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
@@ -5827,20 +4998,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5859,17 +5029,17 @@
   <sheetData>
     <row r="2" spans="1:17">
       <c r="A2" s="2"/>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="24"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -5880,15 +5050,15 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="24"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -5899,25 +5069,25 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="24"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -5928,25 +5098,25 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2"/>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="4">
         <v>11</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="44" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="24"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -5957,25 +5127,25 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2"/>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="4">
         <v>50</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="44" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="24"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -5986,25 +5156,25 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2"/>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="4">
         <v>100</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="24"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -6015,15 +5185,15 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="52"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="24"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -6034,15 +5204,15 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="51"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="24"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -6053,15 +5223,15 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="51"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="24"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -6070,880 +5240,880 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:15">
-      <c r="A13" s="16" t="s">
+    <row r="11" spans="1:17" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:17">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" ht="14.25">
+      <c r="A13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="19" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="21">
+    <row r="15" spans="1:17">
+      <c r="A15" s="15">
         <v>1</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22">
+      <c r="I15" s="16"/>
+      <c r="J15" s="16">
         <v>1</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="28" t="s">
+      <c r="M15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="N15" s="53" t="s">
+      <c r="N15" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="O15" s="28"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="21">
+      <c r="O15" s="22"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="15">
         <v>2</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="28" t="s">
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="28"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="28"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="22"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="21">
+      <c r="A17" s="15">
         <v>3</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22" t="s">
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M17" s="28"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="28"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="22"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="28" t="s">
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="M18" s="28"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="28"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="22"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22" t="s">
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="M19" s="28"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="28"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="22"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="28" t="s">
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="M20" s="28"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="28"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="22"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="28" t="s">
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="28"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="22"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22" t="s">
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M22" s="28"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="28"/>
-    </row>
-    <row r="23" ht="24" spans="1:15">
-      <c r="A23" s="21" t="s">
+      <c r="M22" s="22"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="22"/>
+    </row>
+    <row r="23" spans="1:15" ht="24">
+      <c r="A23" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22" t="s">
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L23" s="29" t="s">
+      <c r="L23" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="M23" s="22"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="28"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="22"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22" t="s">
+      <c r="E24" s="16"/>
+      <c r="F24" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22" t="s">
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="L24" s="28" t="s">
+      <c r="L24" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="M24" s="28"/>
-      <c r="N24" s="53" t="s">
+      <c r="M24" s="22"/>
+      <c r="N24" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="O24" s="28"/>
+      <c r="O24" s="22"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="28" t="s">
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="M25" s="28"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="28"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="22"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22" t="s">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22" t="s">
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="L26" s="28" t="s">
+      <c r="L26" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="M26" s="28"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="28"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="22"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="28" t="s">
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="M27" s="28"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="28"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="22"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="M28" s="22"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="22"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="F29" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="M29" s="22"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="22"/>
+    </row>
+    <row r="39" spans="1:15" ht="18.75">
+      <c r="A39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="38"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J40" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="K40" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="L40" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="16"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="32">
+        <v>2</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="28"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="22" t="s">
+      <c r="E42" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="32">
+        <v>3</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="M29" s="28"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="28"/>
-    </row>
-    <row r="39" ht="18.75" spans="1:15">
-      <c r="A39" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="44"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:15">
-      <c r="A40" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J40" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="K40" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="L40" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="M40" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="N40" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="O40" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="22" t="s">
+      <c r="E43" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I41" s="22"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="L41" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="38">
-        <v>2</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="22" t="s">
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="K43" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="L43" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="32">
+        <v>4</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L44" s="16"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="32">
+        <v>6</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42" s="22" t="s">
+      <c r="E45" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="38">
-        <v>3</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="K43" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="L43" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="38">
-        <v>4</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="L44" s="22"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="38">
-        <v>6</v>
-      </c>
-      <c r="B45" s="22" t="s">
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="K45" s="22"/>
+      <c r="L45" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="D45" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="39"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="39"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="25"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6951,19 +6121,18 @@
     <mergeCell ref="N24:N29"/>
     <mergeCell ref="B2:F3"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R79"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D88" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D88" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6982,17 +6151,17 @@
   <sheetData>
     <row r="2" spans="1:18">
       <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="24"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -7004,15 +6173,15 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="24"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -7024,25 +6193,25 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="24"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -7052,27 +6221,27 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" ht="14.25" spans="1:18">
+    <row r="5" spans="1:18">
       <c r="A5" s="2"/>
-      <c r="B5" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="4">
         <v>19</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>147</v>
+      <c r="F5" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="24"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -7082,27 +6251,27 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" ht="14.25" spans="1:18">
+    <row r="6" spans="1:18">
       <c r="A6" s="2"/>
-      <c r="B6" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="4">
         <v>8</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>149</v>
+      <c r="F6" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="24"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -7112,27 +6281,27 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" ht="14.25" spans="1:18">
+    <row r="7" spans="1:18">
       <c r="A7" s="2"/>
-      <c r="B7" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>151</v>
+      <c r="F7" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="24"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -7142,27 +6311,27 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" ht="14.25" spans="1:18">
+    <row r="8" spans="1:18">
       <c r="A8" s="2"/>
-      <c r="B8" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="4">
         <v>19</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>153</v>
+      <c r="F8" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="24"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -7172,27 +6341,27 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" ht="14.25" spans="1:18">
+    <row r="9" spans="1:18">
       <c r="A9" s="2"/>
-      <c r="B9" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="4">
         <v>19</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>155</v>
+      <c r="F9" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="24"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -7202,27 +6371,27 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" ht="14.25" spans="1:18">
+    <row r="10" spans="1:18">
       <c r="A10" s="2"/>
-      <c r="B10" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="4">
         <v>10</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>157</v>
+      <c r="F10" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="24"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -7232,27 +6401,27 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" ht="14.25" spans="1:18">
+    <row r="11" spans="1:18">
       <c r="A11" s="2"/>
-      <c r="B11" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>159</v>
+      <c r="F11" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="24"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -7262,27 +6431,27 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" ht="14.25" spans="1:18">
+    <row r="12" spans="1:18">
       <c r="A12" s="2"/>
-      <c r="B12" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>161</v>
+      <c r="F12" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -7292,27 +6461,27 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" ht="14.25" spans="1:18">
+    <row r="13" spans="1:18">
       <c r="A13" s="2"/>
-      <c r="B13" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="4">
         <v>10</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>163</v>
+      <c r="F13" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="24"/>
+      <c r="J13" s="18"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -7322,27 +6491,27 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" ht="14.25" spans="1:18">
+    <row r="14" spans="1:18">
       <c r="A14" s="2"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="E14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>167</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="24"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -7352,27 +6521,27 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" ht="14.25" spans="1:18">
+    <row r="15" spans="1:18">
       <c r="A15" s="2"/>
-      <c r="B15" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="B15" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="C15" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>169</v>
+      <c r="F15" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="24"/>
+      <c r="J15" s="18"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -7382,27 +6551,27 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" ht="14.25" spans="1:18">
+    <row r="16" spans="1:18">
       <c r="A16" s="2"/>
-      <c r="B16" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="4">
         <v>10</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>171</v>
+      <c r="F16" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="24"/>
+      <c r="J16" s="18"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -7412,27 +6581,27 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" ht="14.25" spans="1:18">
+    <row r="17" spans="1:18">
       <c r="A17" s="2"/>
-      <c r="B17" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="4">
         <v>10</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>173</v>
+      <c r="F17" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="24"/>
+      <c r="J17" s="18"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -7442,27 +6611,27 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" ht="14.25" spans="1:18">
+    <row r="18" spans="1:18">
       <c r="A18" s="2"/>
-      <c r="B18" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="4">
         <v>3</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>175</v>
+      <c r="F18" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="24"/>
+      <c r="J18" s="18"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -7472,27 +6641,27 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" ht="14.25" spans="1:18">
+    <row r="19" spans="1:18">
       <c r="A19" s="2"/>
-      <c r="B19" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="4">
         <v>8</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>177</v>
+      <c r="F19" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="24"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -7502,27 +6671,27 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" ht="14.25" spans="1:18">
+    <row r="20" spans="1:18">
       <c r="A20" s="2"/>
-      <c r="B20" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="4">
         <v>8</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>179</v>
+      <c r="F20" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="24"/>
+      <c r="J20" s="18"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -7532,27 +6701,27 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" ht="14.25" spans="1:18">
+    <row r="21" spans="1:18">
       <c r="A21" s="2"/>
-      <c r="B21" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="4">
         <v>19</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>181</v>
+      <c r="F21" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="24"/>
+      <c r="J21" s="18"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -7562,27 +6731,27 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" ht="14.25" spans="1:18">
+    <row r="22" spans="1:18">
       <c r="A22" s="2"/>
-      <c r="B22" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="B22" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>183</v>
+      <c r="F22" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="24"/>
+      <c r="J22" s="18"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -7592,27 +6761,27 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" ht="14.25" spans="1:18">
+    <row r="23" spans="1:18">
       <c r="A23" s="2"/>
-      <c r="B23" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="B23" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>185</v>
+      <c r="F23" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="24"/>
+      <c r="J23" s="18"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -7622,1562 +6791,1561 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" ht="14.25" spans="2:7">
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="1:18">
+      <c r="B24" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="B25" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="B26" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:18">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+    </row>
+    <row r="29" spans="1:18" ht="14.25">
+      <c r="A29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="15">
+        <v>1</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16">
+        <v>1</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="15">
+        <v>2</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16">
         <v>30</v>
       </c>
-      <c r="D24" s="10">
+      <c r="F32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="15">
+        <v>3</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16">
+        <v>15</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="15">
+        <v>4</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16">
+        <v>20</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="15">
+        <v>5</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16">
+        <v>15</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="15">
+        <v>6</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16">
+        <v>15</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="15">
+        <v>7</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16">
+        <v>2</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="15">
+        <v>8</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16">
         <v>10</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F38" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="15">
+        <v>9</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16">
+        <v>10</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="15">
+        <v>10</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16">
+        <v>10</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="15">
+        <v>11</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16">
+        <v>10</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="15">
+        <v>12</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K42" s="16"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="15">
+        <v>13</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="15">
+        <v>14</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="15">
+        <v>15</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16">
+        <v>50</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="15">
+        <v>16</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17">
+        <v>10</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="15">
+        <v>17</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16">
+        <v>20</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="15">
+        <v>18</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16">
+        <v>20</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="15">
+        <v>19</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16">
+        <v>300</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="15">
+        <v>20</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16">
+        <v>20</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="15">
+        <v>21</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16">
+        <v>10</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="15">
+        <v>22</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="15">
+        <v>23</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16">
+        <v>255</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="15">
+        <v>24</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16">
+        <v>10</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="15">
+        <v>25</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="15">
+        <v>26</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="15">
         <v>27</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" ht="14.25" spans="2:7">
-      <c r="B25" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="B57" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+    </row>
+    <row r="58" spans="1:16" ht="24">
+      <c r="A58" s="15">
+        <v>28</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L58" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="15">
+        <v>29</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="15">
+        <v>30</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="15">
+        <v>31</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L61" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="15">
+        <v>32</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="15">
+        <v>33</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="15">
+        <v>34</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="15">
+        <v>35</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="18.75">
+      <c r="A70" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="D70" s="25"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="38"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="H71" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J71" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K71" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="L71" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="M71" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="N71" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O71" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P71" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="32">
+        <v>1</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J72" s="16"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="32">
         <v>2</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" ht="14.25" spans="2:6">
-      <c r="B26" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:16">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:16">
-      <c r="A29" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="19" t="s">
+      <c r="B73" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E73" s="16">
         <v>20</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K30" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="N30" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="O30" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P30" s="19" t="s">
+      <c r="F73" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="32">
+        <v>3</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="L74" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="32">
+        <v>4</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="41"/>
+      <c r="L75" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="32">
+        <v>6</v>
+      </c>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E76" s="16">
+        <v>50</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="33">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="21">
-        <v>1</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22">
-        <v>1</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="21">
-        <v>2</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22">
-        <v>30</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="21">
-        <v>3</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22">
-        <v>15</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="21">
-        <v>4</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22">
-        <v>20</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="K34" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="21">
-        <v>5</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22">
-        <v>15</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="21">
-        <v>6</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22">
-        <v>15</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="21">
-        <v>7</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22">
-        <v>2</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="K37" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="21">
-        <v>8</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22">
-        <v>10</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="K38" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="21">
-        <v>9</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22">
-        <v>10</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="K39" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="21">
-        <v>10</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22">
-        <v>10</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="K40" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="21">
-        <v>11</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22">
-        <v>10</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="K41" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="21">
-        <v>12</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="K42" s="22"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="21">
-        <v>13</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="K43" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="21">
-        <v>14</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="K44" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="21">
-        <v>15</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22">
+      <c r="B77" s="16"/>
+      <c r="C77" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E77" s="16">
         <v>50</v>
       </c>
-      <c r="F45" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="K45" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="21">
-        <v>16</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="23">
-        <v>10</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="K46" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="21">
-        <v>17</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22">
-        <v>20</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="A48" s="21">
-        <v>18</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22">
-        <v>20</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="A49" s="21">
-        <v>19</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22">
-        <v>300</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="K49" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-    </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="21">
-        <v>20</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22">
-        <v>20</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-    </row>
-    <row r="51" spans="1:16">
-      <c r="A51" s="21">
-        <v>21</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22">
-        <v>10</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-    </row>
-    <row r="52" spans="1:16">
-      <c r="A52" s="21">
-        <v>22</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
-    </row>
-    <row r="53" spans="1:16">
-      <c r="A53" s="21">
-        <v>23</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22">
-        <v>255</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="K53" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="P53" s="28"/>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="A54" s="21">
-        <v>24</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22">
-        <v>10</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="21">
-        <v>25</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="K55" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
-    </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="21">
-        <v>26</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="K56" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-    </row>
-    <row r="57" spans="1:16">
-      <c r="A57" s="21">
-        <v>27</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="K57" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="P57" s="28"/>
-    </row>
-    <row r="58" ht="24" spans="1:16">
-      <c r="A58" s="21">
-        <v>28</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="K58" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="L58" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
-      <c r="O58" s="28"/>
-      <c r="P58" s="28"/>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="A59" s="21">
-        <v>29</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="K59" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" s="21">
-        <v>30</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="28"/>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="A61" s="21">
-        <v>31</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="L61" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28"/>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62" s="21">
-        <v>32</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F62" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28"/>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="A63" s="21">
-        <v>33</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F63" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="28"/>
-    </row>
-    <row r="64" spans="1:16">
-      <c r="A64" s="21">
-        <v>34</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F64" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="28"/>
-    </row>
-    <row r="65" spans="1:16">
-      <c r="A65" s="21">
-        <v>35</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="28"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="70" ht="18.75" spans="1:16">
-      <c r="A70" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="42"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="32"/>
-      <c r="O70" s="43"/>
-      <c r="P70" s="44"/>
-    </row>
-    <row r="71" ht="14.25" spans="1:16">
-      <c r="A71" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D71" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F71" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="H71" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="I71" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J71" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K71" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="L71" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="M71" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="N71" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="O71" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P71" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
-      <c r="A72" s="38">
-        <v>1</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F72" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="J72" s="22"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
-    </row>
-    <row r="73" spans="1:16">
-      <c r="A73" s="38">
-        <v>2</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="E73" s="22">
-        <v>20</v>
-      </c>
-      <c r="F73" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="47"/>
-      <c r="L73" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="28"/>
-    </row>
-    <row r="74" spans="1:16">
-      <c r="A74" s="38">
-        <v>3</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F74" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="L74" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
-      <c r="P74" s="28"/>
-    </row>
-    <row r="75" spans="1:16">
-      <c r="A75" s="38">
-        <v>4</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="C75" s="22" t="s">
+      <c r="F77" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="D75" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F75" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="47"/>
-      <c r="L75" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="28"/>
-    </row>
-    <row r="76" spans="1:16">
-      <c r="A76" s="38">
-        <v>6</v>
-      </c>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="E76" s="22">
-        <v>50</v>
-      </c>
-      <c r="F76" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="28"/>
-    </row>
-    <row r="77" spans="1:16">
-      <c r="A77" s="39">
-        <v>7</v>
-      </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="E77" s="22">
-        <v>50</v>
-      </c>
-      <c r="F77" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="28"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="22"/>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="39"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="28"/>
-      <c r="M78" s="28"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="28"/>
-      <c r="P78" s="28"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="22"/>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="25"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="40"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="40"/>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="48"/>
-      <c r="L79" s="40"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="25"/>
-      <c r="O79" s="25"/>
-      <c r="P79" s="25"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:F3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9189,8 +8357,8 @@
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>